--- a/prod_2022.xlsx
+++ b/prod_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,7 +360,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cultivo</t>
+          <t>produto</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -479,21 +479,6 @@
           <t>0.25</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -691,21 +676,6 @@
           <t>1.00</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>...</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>...</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>...</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -784,525 +754,525 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dendê (cacho de coco)</t>
+          <t>Coco-da-baía*</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>200942</t>
+          <t>190954</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2952129</t>
+          <t>1829612</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1233888</t>
+          <t>1600093</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>206649</t>
+          <t>1481986</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>86372</t>
+          <t>1296075</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ervilha (em grão)</t>
+          <t>Dendê (cacho de coco)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1054</t>
+          <t>200942</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3720</t>
+          <t>2952129</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>17222</t>
+          <t>1233888</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>206649</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>86372</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fava (em grão)</t>
+          <t>Ervilha (em grão)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>37189</t>
+          <t>1054</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12061</t>
+          <t>3720</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90396</t>
+          <t>17222</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2292</t>
+          <t>186</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>17175</t>
+          <t>861</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Feijão (em grão)</t>
+          <t>Fava (em grão)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2714611</t>
+          <t>37189</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2842395</t>
+          <t>12061</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12374460</t>
+          <t>90396</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1534893</t>
+          <t>2292</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>6682208</t>
+          <t>17175</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Girassol (em grão)</t>
+          <t>Feijão (em grão)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>37641</t>
+          <t>2714611</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>60159</t>
+          <t>2842395</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>152098</t>
+          <t>12374460</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4813</t>
+          <t>1534893</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12168</t>
+          <t>6682208</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Goiaba</t>
+          <t>Girassol (em grão)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22684</t>
+          <t>37641</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>564764</t>
+          <t>60159</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1109140</t>
+          <t>152098</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>367097</t>
+          <t>4813</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>720941</t>
+          <t>12168</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Guaraná (semente)</t>
+          <t>Goiaba</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10762</t>
+          <t>22684</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>564764</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>45779</t>
+          <t>1109140</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>367097</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>8698</t>
+          <t>720941</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Laranja</t>
+          <t>Guaraná (semente)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>570884</t>
+          <t>10762</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>16929631</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>14367012</t>
+          <t>45779</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>13543705</t>
+          <t>467</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11493610</t>
+          <t>8698</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Limão</t>
+          <t>Laranja</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>63092</t>
+          <t>570884</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1632109</t>
+          <t>16929631</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2076875</t>
+          <t>14367012</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>48963</t>
+          <t>13543705</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>62306</t>
+          <t>11493610</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Linho (semente)</t>
+          <t>Limão</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4653</t>
+          <t>63092</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5476</t>
+          <t>1632109</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>13850</t>
+          <t>2076875</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3997</t>
+          <t>48963</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10110</t>
+          <t>62306</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Maçã</t>
+          <t>Linho (semente)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>33311</t>
+          <t>4653</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1047217</t>
+          <t>5476</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1975266</t>
+          <t>13850</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>952967</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1797492</t>
+          <t>10110</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mamão</t>
+          <t>Maçã</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>26689</t>
+          <t>33311</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1107761</t>
+          <t>1047217</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2402452</t>
+          <t>1975266</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>897286</t>
+          <t>952967</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1945986</t>
+          <t>1797492</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mamona (baga)</t>
+          <t>Mamão</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>45832</t>
+          <t>26689</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25489</t>
+          <t>1107761</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>77155</t>
+          <t>2402452</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>18097</t>
+          <t>897286</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>54780</t>
+          <t>1945986</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Manga</t>
+          <t>Mamona (baga)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>78314</t>
+          <t>45832</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1546375</t>
+          <t>25489</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2074489</t>
+          <t>77155</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1546375</t>
+          <t>18097</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2074489</t>
+          <t>54780</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Maracujá</t>
+          <t>Manga</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1312,367 +1282,367 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>45713</t>
+          <t>78314</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>697859</t>
+          <t>1546375</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1972578</t>
+          <t>2074489</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>697859</t>
+          <t>1546375</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1972578</t>
+          <t>2074489</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Marmelo</t>
+          <t>Maracujá</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>45713</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>697859</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1795</t>
+          <t>1972578</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>697859</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1562</t>
+          <t>1972578</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Melancia</t>
+          <t>Marmelo</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>87113</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1912909</t>
+          <t>437</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1882802</t>
+          <t>1795</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1912909</t>
+          <t>380</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1882802</t>
+          <t>1562</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Melão</t>
+          <t>Melancia</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>27594</t>
+          <t>87113</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>699281</t>
+          <t>1912909</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>877273</t>
+          <t>1882802</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>517468</t>
+          <t>1912909</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>649182</t>
+          <t>1882802</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pera</t>
+          <t>Melão</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>27594</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17525</t>
+          <t>699281</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>48018</t>
+          <t>877273</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>6484</t>
+          <t>517468</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>17767</t>
+          <t>649182</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pêssego</t>
+          <t>Pera</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15616</t>
+          <t>1052</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>208823</t>
+          <t>17525</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>480802</t>
+          <t>48018</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>39676</t>
+          <t>6484</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>91352</t>
+          <t>17767</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Soja (em grão)</t>
+          <t>Pêssego</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>41141725</t>
+          <t>15616</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>120701031</t>
+          <t>208823</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>345422469</t>
+          <t>480802</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>80869691</t>
+          <t>39676</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>231433054</t>
+          <t>91352</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tangerina</t>
+          <t>Soja (em grão)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>56431</t>
+          <t>41141725</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1086616</t>
+          <t>120701031</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1597950</t>
+          <t>345422469</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>293386</t>
+          <t>80869691</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>431446</t>
+          <t>231433054</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tomate</t>
+          <t>Tangerina</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>54776</t>
+          <t>56431</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3809986</t>
+          <t>1086616</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>8656263</t>
+          <t>1597950</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3733786</t>
+          <t>293386</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>8483138</t>
+          <t>431446</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Urucum (semente)</t>
+          <t>Tomate</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>12276</t>
+          <t>54776</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11914</t>
+          <t>3809986</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>96653</t>
+          <t>8656263</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>3733786</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4833</t>
+          <t>8483138</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Uva</t>
+          <t>Urucum (semente)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1682,64 +1652,101 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>76101</t>
+          <t>12276</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1450805</t>
+          <t>11914</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4536903</t>
+          <t>96653</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>72540</t>
+          <t>596</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>226845</t>
+          <t>4833</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>76101</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1450805</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>4536903</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>72540</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>226845</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Totais</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>50387222</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>172394993</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>502644505</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>112216715</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>307241743</t>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>50578176</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>174224605</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>504244598</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>113698701</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>308537818</t>
         </is>
       </c>
     </row>
